--- a/ConfigurationFiles/3-Specific_ions.xlsx
+++ b/ConfigurationFiles/3-Specific_ions.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SysMedOs\LipidHunter\ZhixuNi\lipidhunter\ConfigurationFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Georgia\Programs_PhD\2019\ConfigurationFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BA19DA-62CF-4079-B4D0-2E714B490BCD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4725" yWindow="4245" windowWidth="21600" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4723" yWindow="4243" windowWidth="21600" windowHeight="11503" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -315,7 +314,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -676,25 +675,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" customWidth="1"/>
+    <col min="1" max="2" width="8.3828125" customWidth="1"/>
+    <col min="3" max="3" width="11.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.53515625" customWidth="1"/>
+    <col min="5" max="5" width="15.3046875" customWidth="1"/>
+    <col min="6" max="7" width="13.53515625" customWidth="1"/>
     <col min="8" max="8" width="68" customWidth="1"/>
-    <col min="9" max="1025" width="8.42578125" customWidth="1"/>
+    <col min="9" max="1025" width="8.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -746,7 +745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -772,7 +771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -798,7 +797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -824,7 +823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -850,7 +849,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -876,7 +875,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -902,7 +901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -928,7 +927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -954,7 +953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -980,7 +979,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
@@ -1040,7 +1039,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1066,7 +1065,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -1118,7 +1117,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -1144,7 +1143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -1196,7 +1195,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>58</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>58</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>68</v>
       </c>
@@ -1300,7 +1299,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>75</v>
       </c>
@@ -1326,7 +1325,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>75</v>
       </c>
@@ -1378,11 +1377,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C32" s="1"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>85</v>
       </c>
@@ -1408,7 +1407,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>89</v>
       </c>
@@ -1434,7 +1433,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>89</v>
       </c>
@@ -1459,6 +1458,53 @@
       <c r="H35" s="4" t="s">
         <v>94</v>
       </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
